--- a/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_1_site_bay.xlsx
+++ b/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_1_site_bay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B9019-6555-469E-B700-BD9DB0D69060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC14ADD-4873-4B8F-AEBE-6754F6C38C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="188">
   <si>
     <t>type</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>JGW EU10</t>
   </si>
   <si>
     <t>regex(., '^.{0,255}$')</t>
@@ -1168,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1" ht="47.25">
@@ -1186,10 +1183,10 @@
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1247,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>27</v>
@@ -1270,15 +1267,15 @@
         <v>46</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
@@ -1290,19 +1287,19 @@
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" ht="31.5">
       <c r="A7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
@@ -1311,7 +1308,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="31.5">
@@ -1319,21 +1316,21 @@
         <v>46</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
@@ -1351,13 +1348,13 @@
         <v>26</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -1375,13 +1372,13 @@
         <v>29</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -1477,10 +1474,10 @@
       </c>
       <c r="D15" s="15"/>
       <c r="F15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="12" customFormat="1">
@@ -1513,9 +1510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD666"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1578,10 +1575,10 @@
         <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1"/>
       <c r="G5" s="4"/>
@@ -1598,13 +1595,13 @@
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1620,14 +1617,14 @@
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1635,14 +1632,14 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1650,14 +1647,14 @@
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1665,14 +1662,14 @@
         <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1680,14 +1677,14 @@
         <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1695,14 +1692,14 @@
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1710,14 +1707,14 @@
         <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1725,14 +1722,14 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1740,14 +1737,14 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1755,14 +1752,14 @@
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1770,14 +1767,14 @@
         <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1785,14 +1782,14 @@
         <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1800,14 +1797,14 @@
         <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1815,14 +1812,14 @@
         <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1830,14 +1827,14 @@
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1845,14 +1842,14 @@
         <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1860,14 +1857,14 @@
         <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1875,14 +1872,14 @@
         <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1890,14 +1887,14 @@
         <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1905,14 +1902,14 @@
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1920,14 +1917,14 @@
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1935,14 +1932,14 @@
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1950,14 +1947,14 @@
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1965,14 +1962,14 @@
         <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1980,14 +1977,14 @@
         <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1995,14 +1992,14 @@
         <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2010,14 +2007,14 @@
         <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2025,14 +2022,14 @@
         <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2040,14 +2037,14 @@
         <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2055,14 +2052,14 @@
         <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2070,14 +2067,14 @@
         <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2085,14 +2082,14 @@
         <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2100,14 +2097,14 @@
         <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2115,14 +2112,14 @@
         <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2130,14 +2127,14 @@
         <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2145,14 +2142,14 @@
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2166,7 +2163,7 @@
         <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2180,7 +2177,7 @@
         <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2194,7 +2191,7 @@
         <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2208,7 +2205,7 @@
         <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2222,7 +2219,7 @@
         <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2236,7 +2233,7 @@
         <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2250,7 +2247,7 @@
         <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2264,7 +2261,7 @@
         <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2278,7 +2275,7 @@
         <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2292,7 +2289,7 @@
         <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2306,7 +2303,7 @@
         <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2320,7 +2317,7 @@
         <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2334,7 +2331,7 @@
         <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2348,7 +2345,7 @@
         <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2362,7 +2359,7 @@
         <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2376,7 +2373,7 @@
         <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2390,7 +2387,7 @@
         <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2404,7 +2401,7 @@
         <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2418,7 +2415,7 @@
         <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2432,7 +2429,7 @@
         <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2446,7 +2443,7 @@
         <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2460,7 +2457,7 @@
         <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2474,7 +2471,7 @@
         <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2488,7 +2485,7 @@
         <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2502,7 +2499,7 @@
         <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2516,7 +2513,7 @@
         <v>126</v>
       </c>
       <c r="F71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2530,7 +2527,7 @@
         <v>127</v>
       </c>
       <c r="F72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2544,7 +2541,7 @@
         <v>128</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2558,7 +2555,7 @@
         <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2572,7 +2569,7 @@
         <v>130</v>
       </c>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2586,7 +2583,7 @@
         <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2600,7 +2597,7 @@
         <v>132</v>
       </c>
       <c r="F77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2614,7 +2611,7 @@
         <v>133</v>
       </c>
       <c r="F78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2628,7 +2625,7 @@
         <v>134</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2642,12 +2639,12 @@
         <v>135</v>
       </c>
       <c r="F80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
         <v>99</v>
@@ -2656,12 +2653,12 @@
         <v>99</v>
       </c>
       <c r="F82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
         <v>80</v>
@@ -2670,12 +2667,12 @@
         <v>80</v>
       </c>
       <c r="F83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
         <v>95</v>
@@ -2684,12 +2681,12 @@
         <v>95</v>
       </c>
       <c r="F84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
         <v>71</v>
@@ -2698,12 +2695,12 @@
         <v>71</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
         <v>81</v>
@@ -2712,12 +2709,12 @@
         <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
         <v>96</v>
@@ -2726,12 +2723,12 @@
         <v>96</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" t="s">
         <v>102</v>
@@ -2740,12 +2737,12 @@
         <v>102</v>
       </c>
       <c r="F88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
         <v>72</v>
@@ -2754,12 +2751,12 @@
         <v>72</v>
       </c>
       <c r="F89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
         <v>77</v>
@@ -2768,12 +2765,12 @@
         <v>77</v>
       </c>
       <c r="F90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
@@ -2782,26 +2779,26 @@
         <v>94</v>
       </c>
       <c r="F91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
         <v>103</v>
@@ -2810,12 +2807,12 @@
         <v>103</v>
       </c>
       <c r="F93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
         <v>84</v>
@@ -2824,12 +2821,12 @@
         <v>84</v>
       </c>
       <c r="F94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -2838,12 +2835,12 @@
         <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
@@ -2852,12 +2849,12 @@
         <v>101</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
         <v>85</v>
@@ -2866,12 +2863,12 @@
         <v>85</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
         <v>107</v>
@@ -2880,12 +2877,12 @@
         <v>107</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
         <v>79</v>
@@ -2894,12 +2891,12 @@
         <v>79</v>
       </c>
       <c r="F99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
@@ -2908,12 +2905,12 @@
         <v>74</v>
       </c>
       <c r="F100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
         <v>86</v>
@@ -2922,12 +2919,12 @@
         <v>86</v>
       </c>
       <c r="F101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
@@ -2936,12 +2933,12 @@
         <v>109</v>
       </c>
       <c r="F102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
         <v>100</v>
@@ -2950,12 +2947,12 @@
         <v>100</v>
       </c>
       <c r="F103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
@@ -2964,12 +2961,12 @@
         <v>75</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
@@ -2978,12 +2975,12 @@
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
         <v>90</v>
@@ -2992,12 +2989,12 @@
         <v>90</v>
       </c>
       <c r="F106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
         <v>98</v>
@@ -3006,12 +3003,12 @@
         <v>98</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
@@ -3020,12 +3017,12 @@
         <v>108</v>
       </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
         <v>78</v>
@@ -3034,12 +3031,12 @@
         <v>78</v>
       </c>
       <c r="F109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
         <v>105</v>
@@ -3048,12 +3045,12 @@
         <v>105</v>
       </c>
       <c r="F110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
         <v>92</v>
@@ -3062,12 +3059,12 @@
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
         <v>89</v>
@@ -3076,12 +3073,12 @@
         <v>89</v>
       </c>
       <c r="F112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>82</v>
@@ -3090,12 +3087,12 @@
         <v>82</v>
       </c>
       <c r="F113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>76</v>
@@ -3104,12 +3101,12 @@
         <v>76</v>
       </c>
       <c r="F114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>87</v>
@@ -3118,12 +3115,12 @@
         <v>87</v>
       </c>
       <c r="F115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
         <v>106</v>
@@ -3132,12 +3129,12 @@
         <v>106</v>
       </c>
       <c r="F116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
         <v>97</v>
@@ -3146,12 +3143,12 @@
         <v>97</v>
       </c>
       <c r="F117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
         <v>91</v>
@@ -3160,12 +3157,12 @@
         <v>91</v>
       </c>
       <c r="F118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119" t="s">
         <v>83</v>
@@ -3174,12 +3171,12 @@
         <v>83</v>
       </c>
       <c r="F119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" t="s">
         <v>73</v>
@@ -3188,12 +3185,12 @@
         <v>73</v>
       </c>
       <c r="F120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121" t="s">
         <v>88</v>
@@ -3202,7 +3199,7 @@
         <v>88</v>
       </c>
       <c r="F121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3250,10 +3247,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>65</v>
@@ -3335,7 +3332,7 @@
         <v>70</v>
       </c>
       <c r="T1" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3346,37 +3343,37 @@
         <v>99</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>145</v>
-      </c>
       <c r="E2" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T2">
         <v>101</v>
@@ -3390,28 +3387,28 @@
         <v>80</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T3">
         <v>102</v>
@@ -3425,28 +3422,28 @@
         <v>95</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T4">
         <v>103</v>
@@ -3460,28 +3457,28 @@
         <v>71</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T5">
         <v>104</v>
@@ -3495,28 +3492,28 @@
         <v>81</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T6">
         <v>105</v>
@@ -3530,28 +3527,28 @@
         <v>96</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>182</v>
-      </c>
       <c r="S7" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T7">
         <v>106</v>
@@ -3565,28 +3562,28 @@
         <v>102</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T8">
         <v>107</v>
@@ -3600,28 +3597,28 @@
         <v>72</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T9">
         <v>108</v>
@@ -3635,28 +3632,28 @@
         <v>77</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="F10" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T10">
         <v>109</v>
@@ -3670,28 +3667,28 @@
         <v>94</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T11">
         <v>110</v>
@@ -3702,31 +3699,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T12">
         <v>111</v>
@@ -3740,28 +3737,28 @@
         <v>103</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="R13" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="S13" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T13">
         <v>112</v>
@@ -3775,28 +3772,28 @@
         <v>84</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T14">
         <v>113</v>
@@ -3810,22 +3807,22 @@
         <v>93</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T15">
         <v>114</v>
@@ -3839,22 +3836,22 @@
         <v>101</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T16">
         <v>115</v>
@@ -3868,22 +3865,22 @@
         <v>85</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T17">
         <v>116</v>
@@ -3897,22 +3894,22 @@
         <v>107</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T18">
         <v>117</v>
@@ -3926,22 +3923,22 @@
         <v>79</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T19">
         <v>118</v>
@@ -3955,22 +3952,22 @@
         <v>74</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T20">
         <v>119</v>
@@ -3984,22 +3981,22 @@
         <v>86</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T21">
         <v>120</v>
@@ -4013,22 +4010,22 @@
         <v>109</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T22">
         <v>121</v>
@@ -4042,22 +4039,22 @@
         <v>100</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T23">
         <v>122</v>
@@ -4071,22 +4068,22 @@
         <v>75</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T24">
         <v>123</v>
@@ -4100,22 +4097,22 @@
         <v>104</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T25">
         <v>124</v>
@@ -4129,22 +4126,22 @@
         <v>90</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T26">
         <v>125</v>
@@ -4158,22 +4155,22 @@
         <v>98</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T27">
         <v>126</v>
@@ -4187,22 +4184,22 @@
         <v>108</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T28">
         <v>127</v>
@@ -4216,22 +4213,22 @@
         <v>78</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T29">
         <v>128</v>
@@ -4245,22 +4242,22 @@
         <v>105</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T30">
         <v>129</v>
@@ -4274,22 +4271,22 @@
         <v>92</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T31">
         <v>130</v>
@@ -4303,22 +4300,22 @@
         <v>89</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T32">
         <v>131</v>
@@ -4332,22 +4329,22 @@
         <v>82</v>
       </c>
       <c r="C33" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="R33" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="R33" s="18" t="s">
-        <v>145</v>
-      </c>
       <c r="S33" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T33">
         <v>132</v>
@@ -4361,22 +4358,22 @@
         <v>76</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R34" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T34">
         <v>133</v>
@@ -4390,22 +4387,22 @@
         <v>87</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R35" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S35" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T35">
         <v>134</v>
@@ -4419,22 +4416,22 @@
         <v>106</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R36" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S36" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T36">
         <v>135</v>
@@ -4448,16 +4445,16 @@
         <v>97</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4468,16 +4465,16 @@
         <v>91</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4488,16 +4485,16 @@
         <v>83</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4508,16 +4505,16 @@
         <v>73</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4528,16 +4525,16 @@
         <v>88</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_1_site_bay.xlsx
+++ b/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_1_site_bay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC14ADD-4873-4B8F-AEBE-6754F6C38C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE76730-00D5-4CEC-B048-21DDE07BFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="198">
   <si>
     <t>type</t>
   </si>
@@ -80,9 +80,6 @@
     <t>choice_filter</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>c_recorder</t>
   </si>
   <si>
@@ -401,12 +398,6 @@
     <t>Enter the replacement school name</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 9 and 100</t>
-  </si>
-  <si>
     <t>c_cluster_name_1</t>
   </si>
   <si>
@@ -599,10 +590,49 @@
     <t>Code</t>
   </si>
   <si>
-    <t>(2024 Mar) Nigeria - 1. TAS1 LF Site Form - Bayelsa</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_202403_1_site_bay</t>
+    <t>ng_lf_tas_202403_1_site_bay_v2</t>
+  </si>
+  <si>
+    <t>(2024 Mar) Nigeria - 1. TAS1 LF Site Form - Bayelsa V2</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>select_one team</t>
   </si>
 </sst>
 </file>
@@ -743,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -795,6 +825,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,7 +1136,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1165,33 +1198,29 @@
         <v>12</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1" ht="47.25">
       <c r="A2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>121</v>
-      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -1199,87 +1228,87 @@
     </row>
     <row r="3" spans="1:14" s="12" customFormat="1">
       <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="15"/>
       <c r="G3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1">
       <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" ht="31.5">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="12" customFormat="1" ht="31.5">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -1287,54 +1316,54 @@
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" ht="31.5">
       <c r="A7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="31.5">
       <c r="A8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1342,61 +1371,61 @@
     </row>
     <row r="9" spans="1:14" s="12" customFormat="1" ht="78.75">
       <c r="A9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="12" customFormat="1" ht="63">
       <c r="A10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1405,7 +1434,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -1413,89 +1442,89 @@
     </row>
     <row r="12" spans="1:14" s="12" customFormat="1" ht="31.5">
       <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="12" customFormat="1" ht="31.5">
       <c r="A13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="J13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="12" customFormat="1" ht="31.5">
       <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="15"/>
       <c r="H14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:14" s="12" customFormat="1">
       <c r="A15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="15"/>
       <c r="F15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="12" customFormat="1">
       <c r="A16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" s="12" customFormat="1">
       <c r="A17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1508,11 +1537,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1526,7 +1555,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1535,1679 +1564,1805 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46">
-        <v>101</v>
-      </c>
-      <c r="C46">
-        <v>101</v>
-      </c>
-      <c r="F46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="C46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47">
-        <v>102</v>
-      </c>
-      <c r="C47">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="C47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48">
-        <v>103</v>
-      </c>
-      <c r="C48">
-        <v>103</v>
-      </c>
-      <c r="F48" t="s">
-        <v>156</v>
+        <v>55</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49">
-        <v>104</v>
-      </c>
-      <c r="C49">
-        <v>104</v>
-      </c>
-      <c r="F49" t="s">
-        <v>146</v>
+        <v>55</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50">
-        <v>105</v>
-      </c>
-      <c r="C50">
-        <v>105</v>
-      </c>
-      <c r="F50" t="s">
-        <v>141</v>
+        <v>55</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51">
-        <v>106</v>
-      </c>
-      <c r="C51">
-        <v>106</v>
-      </c>
-      <c r="F51" t="s">
-        <v>181</v>
+        <v>55</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52">
-        <v>107</v>
-      </c>
-      <c r="C52">
-        <v>107</v>
-      </c>
-      <c r="F52" t="s">
-        <v>134</v>
+        <v>55</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53">
-        <v>108</v>
-      </c>
-      <c r="C53">
-        <v>108</v>
-      </c>
-      <c r="F53" t="s">
-        <v>184</v>
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54">
-        <v>109</v>
-      </c>
-      <c r="C54">
-        <v>109</v>
-      </c>
-      <c r="F54" t="s">
-        <v>167</v>
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>110</v>
-      </c>
-      <c r="C55">
-        <v>110</v>
-      </c>
-      <c r="F55" t="s">
-        <v>160</v>
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56">
-        <v>111</v>
-      </c>
-      <c r="C56">
-        <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>112</v>
-      </c>
-      <c r="C57">
-        <v>112</v>
-      </c>
-      <c r="F57" t="s">
-        <v>150</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C58">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C59">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C60">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C61">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C62">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C63">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C64">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F64" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C65">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C66">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C67">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F67" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C68">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C69">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F69" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C70">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C71">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F71" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C72">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C73">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F73" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C74">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F74" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C75">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F75" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C76">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F76" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C77">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C78">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C79">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F79" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C80">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81">
+        <v>124</v>
+      </c>
+      <c r="C81">
+        <v>124</v>
+      </c>
+      <c r="F81" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" t="s">
-        <v>99</v>
+        <v>59</v>
+      </c>
+      <c r="B82">
+        <v>125</v>
+      </c>
+      <c r="C82">
+        <v>125</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" t="s">
-        <v>80</v>
+        <v>59</v>
+      </c>
+      <c r="B83">
+        <v>126</v>
+      </c>
+      <c r="C83">
+        <v>126</v>
       </c>
       <c r="F83" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" t="s">
-        <v>95</v>
+        <v>59</v>
+      </c>
+      <c r="B84">
+        <v>127</v>
+      </c>
+      <c r="C84">
+        <v>127</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="B85">
+        <v>128</v>
+      </c>
+      <c r="C85">
+        <v>128</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="B86">
+        <v>129</v>
+      </c>
+      <c r="C86">
+        <v>129</v>
       </c>
       <c r="F86" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" t="s">
-        <v>96</v>
+        <v>59</v>
+      </c>
+      <c r="B87">
+        <v>130</v>
+      </c>
+      <c r="C87">
+        <v>130</v>
       </c>
       <c r="F87" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>113</v>
-      </c>
-      <c r="B88" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" t="s">
-        <v>102</v>
+        <v>59</v>
+      </c>
+      <c r="B88">
+        <v>131</v>
+      </c>
+      <c r="C88">
+        <v>131</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>113</v>
-      </c>
-      <c r="B89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="B89">
+        <v>132</v>
+      </c>
+      <c r="C89">
+        <v>132</v>
       </c>
       <c r="F89" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="B90">
+        <v>133</v>
+      </c>
+      <c r="C90">
+        <v>133</v>
       </c>
       <c r="F90" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="B91">
+        <v>134</v>
+      </c>
+      <c r="C91">
+        <v>134</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" t="s">
-        <v>138</v>
+        <v>59</v>
+      </c>
+      <c r="B92">
+        <v>135</v>
+      </c>
+      <c r="C92">
+        <v>135</v>
       </c>
       <c r="F92" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>113</v>
-      </c>
-      <c r="B93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93" t="s">
-        <v>103</v>
-      </c>
-      <c r="F93" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F95" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F97" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F99" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F100" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F101" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F102" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F103" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="F104" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F105" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F107" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F108" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F109" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F110" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F111" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F112" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F113" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C114" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F114" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F115" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F116" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F117" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C118" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F118" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C119" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F119" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F120" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" t="s">
+        <v>77</v>
+      </c>
+      <c r="F121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" t="s">
         <v>88</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C124" t="s">
         <v>88</v>
       </c>
-      <c r="F121" t="s">
-        <v>142</v>
+      <c r="F124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" t="s">
+        <v>81</v>
+      </c>
+      <c r="F125" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>75</v>
+      </c>
+      <c r="F126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" t="s">
+        <v>86</v>
+      </c>
+      <c r="F127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
+        <v>96</v>
+      </c>
+      <c r="C129" t="s">
+        <v>96</v>
+      </c>
+      <c r="F129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+      <c r="F131" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" t="s">
+        <v>72</v>
+      </c>
+      <c r="F132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" t="s">
+        <v>87</v>
+      </c>
+      <c r="F133" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="B9:B44">
+  <autoFilter ref="A1:H38" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B21:B56">
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B59">
+  <conditionalFormatting sqref="B58:B71">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3219,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3233,30 +3388,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3293,46 +3448,46 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="T1" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3340,40 +3495,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="R2" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T2">
         <v>101</v>
@@ -3384,31 +3539,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T3">
         <v>102</v>
@@ -3419,31 +3574,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>146</v>
-      </c>
       <c r="E4" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T4">
         <v>103</v>
@@ -3454,31 +3609,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>146</v>
-      </c>
       <c r="S5" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T5">
         <v>104</v>
@@ -3489,31 +3644,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R6" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T6">
         <v>105</v>
@@ -3524,31 +3679,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T7">
         <v>106</v>
@@ -3559,31 +3714,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T8">
         <v>107</v>
@@ -3594,31 +3749,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T9">
         <v>108</v>
@@ -3629,31 +3784,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T10">
         <v>109</v>
@@ -3664,31 +3819,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>146</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T11">
         <v>110</v>
@@ -3699,31 +3854,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="R12" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>149</v>
-      </c>
       <c r="S12" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T12">
         <v>111</v>
@@ -3734,31 +3889,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T13">
         <v>112</v>
@@ -3769,31 +3924,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>177</v>
-      </c>
       <c r="R14" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T14">
         <v>113</v>
@@ -3804,25 +3959,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T15">
         <v>114</v>
@@ -3833,25 +3988,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T16">
         <v>115</v>
@@ -3862,25 +4017,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T17">
         <v>116</v>
@@ -3891,25 +4046,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T18">
         <v>117</v>
@@ -3920,25 +4075,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T19">
         <v>118</v>
@@ -3949,25 +4104,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T20">
         <v>119</v>
@@ -3978,25 +4133,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T21">
         <v>120</v>
@@ -4007,25 +4162,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T22">
         <v>121</v>
@@ -4036,25 +4191,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T23">
         <v>122</v>
@@ -4065,25 +4220,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T24">
         <v>123</v>
@@ -4094,25 +4249,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T25">
         <v>124</v>
@@ -4123,25 +4278,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T26">
         <v>125</v>
@@ -4152,25 +4307,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F27" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="R27" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="R27" s="20" t="s">
-        <v>183</v>
-      </c>
       <c r="S27" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T27">
         <v>126</v>
@@ -4181,25 +4336,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T28">
         <v>127</v>
@@ -4210,25 +4365,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T29">
         <v>128</v>
@@ -4239,25 +4394,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T30">
         <v>129</v>
@@ -4268,25 +4423,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T31">
         <v>130</v>
@@ -4297,25 +4452,25 @@
         <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T32">
         <v>131</v>
@@ -4326,25 +4481,25 @@
         <v>2</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D33" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="R33" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="R33" s="18" t="s">
-        <v>144</v>
-      </c>
       <c r="S33" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T33">
         <v>132</v>
@@ -4355,25 +4510,25 @@
         <v>3</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R34" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T34">
         <v>133</v>
@@ -4384,25 +4539,25 @@
         <v>4</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R35" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S35" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T35">
         <v>134</v>
@@ -4413,25 +4568,25 @@
         <v>5</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="E36" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R36" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S36" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T36">
         <v>135</v>
@@ -4442,19 +4597,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4462,19 +4617,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4482,19 +4637,19 @@
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="E39" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4502,19 +4657,19 @@
         <v>9</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4522,19 +4677,19 @@
         <v>10</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_1_site_bay.xlsx
+++ b/LF/TAS/Nigeria/2024/mar_2024/ng_lf_tas_202403_1_site_bay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE76730-00D5-4CEC-B048-21DDE07BFC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E584D990-99E9-4931-B02D-AF7B49150DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1132,11 +1132,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1540,8 +1540,8 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3374,7 +3374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
